--- a/res/random.xlsx
+++ b/res/random.xlsx
@@ -396,172 +396,172 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44066.33333333334</v>
+        <v>44096.33333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5372223572706289</v>
+        <v>0.4675947913740578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9908853274667397</v>
+        <v>0.740659080798525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9187885148090917</v>
+        <v>0.2663448626799129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4706352948556269</v>
+        <v>0.1978382402138276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44066.375</v>
+        <v>44096.375</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3782201307900488</v>
+        <v>0.2384847974223614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4377711914891365</v>
+        <v>0.1474817558476638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8548875450065738</v>
+        <v>0.852512921477489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4015619510303094</v>
+        <v>0.03726358526575868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44066.41666666666</v>
+        <v>44096.41666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2801511468500755</v>
+        <v>0.6893581023665957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4060966310678292</v>
+        <v>0.04008663214680985</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1392285627411624</v>
+        <v>0.6208144232341922</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9522310198069664</v>
+        <v>0.1547585431588803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44066.45833333334</v>
+        <v>44096.45833333334</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5645676017816327</v>
+        <v>0.7684489844689538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985770688997799</v>
+        <v>0.01041297648400819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07530748188992942</v>
+        <v>0.03357646924800939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4230941550590611</v>
+        <v>0.877243847135169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44066.5</v>
+        <v>44096.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.281606276904009</v>
+        <v>0.0613712322407034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3286582800036051</v>
+        <v>0.8526761219529722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8266374376390183</v>
+        <v>0.9401375713415719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1011469719352558</v>
+        <v>0.474394361124821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44066.54166666666</v>
+        <v>44096.54166666666</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8472731797537796</v>
+        <v>0.9740747153079286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3688537234998575</v>
+        <v>0.5124662319241388</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5480014065491586</v>
+        <v>0.7682148944800004</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2583269485275241</v>
+        <v>0.122165725193995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44066.58333333334</v>
+        <v>44096.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02821197865485014</v>
+        <v>0.294593246384494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6606569967441416</v>
+        <v>0.3777161686744689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1093621664808824</v>
+        <v>0.5506397639878809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8840161356363314</v>
+        <v>0.02763033908365253</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44066.625</v>
+        <v>44096.625</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04469090457340041</v>
+        <v>0.7519912179847913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7057184108761561</v>
+        <v>0.8997771844976937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6644102267863123</v>
+        <v>0.6751542727072153</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3679540160886366</v>
+        <v>0.8105542638400995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44066.66666666666</v>
+        <v>44096.66666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1054152376675538</v>
+        <v>0.04242341401607774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02527911763600843</v>
+        <v>0.4545186972060563</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2700917154838363</v>
+        <v>0.2464464490441204</v>
       </c>
       <c r="E10" t="n">
-        <v>0.657442445346881</v>
+        <v>0.9077333175847799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44066.70833333334</v>
+        <v>44096.70833333334</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5242106084682616</v>
+        <v>0.9000175122068014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3719355897064066</v>
+        <v>0.8865303965215767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02052440835152103</v>
+        <v>0.7134826944750564</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4290158751626864</v>
+        <v>0.9835273569401101</v>
       </c>
     </row>
   </sheetData>
